--- a/BLACK_SUNRISE_YCbCr/90_Degree_GLCM/G_resmat.xlsx
+++ b/BLACK_SUNRISE_YCbCr/90_Degree_GLCM/G_resmat.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4TH YEAR\Project_1\MATRICES_WORKSPACES\BLACK_SUNRISE_YCbCr\90_Degree_GLCM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE2554A-88E1-4B3E-94A2-9318FC47F8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +336,5618 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B382" sqref="B382:B400"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>4.0150247696853811E-2</v>
+      </c>
+      <c r="B1">
+        <v>0.87800391948323597</v>
+      </c>
+      <c r="C1">
+        <v>0.64727069238046087</v>
+      </c>
+      <c r="D1">
+        <v>0.97992487615157309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>7.1192982456140357E-3</v>
+      </c>
+      <c r="B2">
+        <v>0.92119117374592918</v>
+      </c>
+      <c r="C2">
+        <v>0.90267720512157601</v>
+      </c>
+      <c r="D2">
+        <v>0.99644035087719296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1.8558385459033409E-2</v>
+      </c>
+      <c r="B3">
+        <v>0.87702174220602735</v>
+      </c>
+      <c r="C3">
+        <v>0.83421335238577599</v>
+      </c>
+      <c r="D3">
+        <v>0.99072080727048306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1.7454352844764695E-2</v>
+      </c>
+      <c r="B4">
+        <v>0.8689069079068622</v>
+      </c>
+      <c r="C4">
+        <v>0.85471755675285865</v>
+      </c>
+      <c r="D4">
+        <v>0.9912728235776177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2.0339457148280237E-2</v>
+      </c>
+      <c r="B5">
+        <v>0.90675625397792847</v>
+      </c>
+      <c r="C5">
+        <v>0.77519639530364393</v>
+      </c>
+      <c r="D5">
+        <v>0.98983027142585989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2.446093317290246E-2</v>
+      </c>
+      <c r="B6">
+        <v>0.87749579849785764</v>
+      </c>
+      <c r="C6">
+        <v>0.78842077017108425</v>
+      </c>
+      <c r="D6">
+        <v>0.98776953341354867</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1.4983459817085038E-2</v>
+      </c>
+      <c r="B7">
+        <v>0.91698797849703562</v>
+      </c>
+      <c r="C7">
+        <v>0.80998734961993757</v>
+      </c>
+      <c r="D7">
+        <v>0.99250827009145759</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>9.1894822445107091E-3</v>
+      </c>
+      <c r="B8">
+        <v>0.92700914492883102</v>
+      </c>
+      <c r="C8">
+        <v>0.86842973455036676</v>
+      </c>
+      <c r="D8">
+        <v>0.99540525887774467</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3.1417030930116753E-2</v>
+      </c>
+      <c r="B9">
+        <v>0.84475560286413443</v>
+      </c>
+      <c r="C9">
+        <v>0.77824026832546545</v>
+      </c>
+      <c r="D9">
+        <v>0.98429148453494175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2.7154631297418262E-2</v>
+      </c>
+      <c r="B10">
+        <v>0.89012231895322058</v>
+      </c>
+      <c r="C10">
+        <v>0.73841324767116889</v>
+      </c>
+      <c r="D10">
+        <v>0.98642268435129099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1.991492652745553E-2</v>
+      </c>
+      <c r="B11">
+        <v>0.86474762333197663</v>
+      </c>
+      <c r="C11">
+        <v>0.83854886472253176</v>
+      </c>
+      <c r="D11">
+        <v>0.99004253673627218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2.464198490230906E-2</v>
+      </c>
+      <c r="B12">
+        <v>0.86429670933287328</v>
+      </c>
+      <c r="C12">
+        <v>0.80052688410454775</v>
+      </c>
+      <c r="D12">
+        <v>0.98767900754884541</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1.0215136381098734E-2</v>
+      </c>
+      <c r="B13">
+        <v>0.90438122937577203</v>
+      </c>
+      <c r="C13">
+        <v>0.88480116202100789</v>
+      </c>
+      <c r="D13">
+        <v>0.99489243180945064</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1.3650465980974458E-2</v>
+      </c>
+      <c r="B14">
+        <v>0.88881030257147942</v>
+      </c>
+      <c r="C14">
+        <v>0.86687195249990179</v>
+      </c>
+      <c r="D14">
+        <v>0.99317476700951279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1.7067017422804896E-2</v>
+      </c>
+      <c r="B15">
+        <v>0.86020199391848262</v>
+      </c>
+      <c r="C15">
+        <v>0.86668660594473446</v>
+      </c>
+      <c r="D15">
+        <v>0.99146649128859754</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1.1896489756798849E-2</v>
+      </c>
+      <c r="B16">
+        <v>0.89938413216905477</v>
+      </c>
+      <c r="C16">
+        <v>0.87202873954379856</v>
+      </c>
+      <c r="D16">
+        <v>0.99405175512160038</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>8.8853454238069646E-3</v>
+      </c>
+      <c r="B17">
+        <v>0.88392368069764615</v>
+      </c>
+      <c r="C17">
+        <v>0.91567371993621038</v>
+      </c>
+      <c r="D17">
+        <v>0.99555732728809654</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1.0482916022078344E-2</v>
+      </c>
+      <c r="B18">
+        <v>0.90675553652938656</v>
+      </c>
+      <c r="C18">
+        <v>0.88041866942759506</v>
+      </c>
+      <c r="D18">
+        <v>0.99475854198896108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1.7039582188015392E-2</v>
+      </c>
+      <c r="B19">
+        <v>0.84976115220687098</v>
+      </c>
+      <c r="C19">
+        <v>0.87465847005873187</v>
+      </c>
+      <c r="D19">
+        <v>0.99148020890599231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>9.7070595587941955E-3</v>
+      </c>
+      <c r="B20">
+        <v>0.91614489333368221</v>
+      </c>
+      <c r="C20">
+        <v>0.87572438756398019</v>
+      </c>
+      <c r="D20">
+        <v>0.99514647022060299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1.7824507084650283E-2</v>
+      </c>
+      <c r="B21">
+        <v>0.89796474651845415</v>
+      </c>
+      <c r="C21">
+        <v>0.81159627439196935</v>
+      </c>
+      <c r="D21">
+        <v>0.99108774645767483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3.1444745730460022E-2</v>
+      </c>
+      <c r="B22">
+        <v>0.89257320817962138</v>
+      </c>
+      <c r="C22">
+        <v>0.68234321104070395</v>
+      </c>
+      <c r="D22">
+        <v>0.98427762713476996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1.4514994564869876E-2</v>
+      </c>
+      <c r="B23">
+        <v>0.91359352488874546</v>
+      </c>
+      <c r="C23">
+        <v>0.82174491851221776</v>
+      </c>
+      <c r="D23">
+        <v>0.99274250271756503</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2.4104899248682581E-2</v>
+      </c>
+      <c r="B24">
+        <v>0.93585673549014625</v>
+      </c>
+      <c r="C24">
+        <v>0.60779328047723036</v>
+      </c>
+      <c r="D24">
+        <v>0.98794755037565873</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2.8159989208147848E-3</v>
+      </c>
+      <c r="B25">
+        <v>0.93017713850318207</v>
+      </c>
+      <c r="C25">
+        <v>0.95686207221494968</v>
+      </c>
+      <c r="D25">
+        <v>0.99859200053959263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1.5288015288015287E-2</v>
+      </c>
+      <c r="B26">
+        <v>0.89935571470040587</v>
+      </c>
+      <c r="C26">
+        <v>0.83840689599331431</v>
+      </c>
+      <c r="D26">
+        <v>0.99235599235599237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1.2474531964786838E-2</v>
+      </c>
+      <c r="B27">
+        <v>0.93554667680561465</v>
+      </c>
+      <c r="C27">
+        <v>0.7965515215299388</v>
+      </c>
+      <c r="D27">
+        <v>0.99376273401760651</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>6.7528243752139677E-3</v>
+      </c>
+      <c r="B28">
+        <v>0.95799559015996716</v>
+      </c>
+      <c r="C28">
+        <v>0.83690163336533363</v>
+      </c>
+      <c r="D28">
+        <v>0.99662358781239313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2.2213302752293575E-2</v>
+      </c>
+      <c r="B29">
+        <v>0.911512454967495</v>
+      </c>
+      <c r="C29">
+        <v>0.7365463479563541</v>
+      </c>
+      <c r="D29">
+        <v>0.98889334862385314</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2.4623052568884987E-2</v>
+      </c>
+      <c r="B30">
+        <v>0.91223992550495869</v>
+      </c>
+      <c r="C30">
+        <v>0.70672100667658955</v>
+      </c>
+      <c r="D30">
+        <v>0.98768847371555757</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1.3261134307585248E-2</v>
+      </c>
+      <c r="B31">
+        <v>0.93330856834150155</v>
+      </c>
+      <c r="C31">
+        <v>0.80139297933316456</v>
+      </c>
+      <c r="D31">
+        <v>0.99336943284620738</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>3.1284534403536325E-2</v>
+      </c>
+      <c r="B32">
+        <v>0.89805843051995315</v>
+      </c>
+      <c r="C32">
+        <v>0.67500741376418383</v>
+      </c>
+      <c r="D32">
+        <v>0.9843577327982318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1.6172363346189648E-2</v>
+      </c>
+      <c r="B33">
+        <v>0.90334903988179938</v>
+      </c>
+      <c r="C33">
+        <v>0.82015974702196648</v>
+      </c>
+      <c r="D33">
+        <v>0.99191381832690506</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2.6372596937113066E-3</v>
+      </c>
+      <c r="B34">
+        <v>0.93475466221890136</v>
+      </c>
+      <c r="C34">
+        <v>0.95737936733564277</v>
+      </c>
+      <c r="D34">
+        <v>0.99868137015314429</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>8.6647710651642264E-3</v>
+      </c>
+      <c r="B35">
+        <v>0.90121597317688817</v>
+      </c>
+      <c r="C35">
+        <v>0.90513903916223037</v>
+      </c>
+      <c r="D35">
+        <v>0.99566761446741803</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>8.9201730733053236E-3</v>
+      </c>
+      <c r="B36">
+        <v>0.92985086214188517</v>
+      </c>
+      <c r="C36">
+        <v>0.86656374409367676</v>
+      </c>
+      <c r="D36">
+        <v>0.99553991346334736</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>9.510242843576178E-3</v>
+      </c>
+      <c r="B37">
+        <v>0.93964576123393573</v>
+      </c>
+      <c r="C37">
+        <v>0.83514212558223877</v>
+      </c>
+      <c r="D37">
+        <v>0.99524487857821198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2.0542687552996829E-2</v>
+      </c>
+      <c r="B38">
+        <v>0.90736734525875329</v>
+      </c>
+      <c r="C38">
+        <v>0.77889275591119511</v>
+      </c>
+      <c r="D38">
+        <v>0.98972865622350181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1.7106704139123095E-2</v>
+      </c>
+      <c r="B39">
+        <v>0.90369526497672426</v>
+      </c>
+      <c r="C39">
+        <v>0.81101255611316658</v>
+      </c>
+      <c r="D39">
+        <v>0.99144664793043846</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2.5710371957430367E-2</v>
+      </c>
+      <c r="B40">
+        <v>0.90008262395045657</v>
+      </c>
+      <c r="C40">
+        <v>0.74352115091146243</v>
+      </c>
+      <c r="D40">
+        <v>0.98714481402128473</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>4.6389233954451346E-2</v>
+      </c>
+      <c r="B41">
+        <v>0.90076375212879034</v>
+      </c>
+      <c r="C41">
+        <v>0.5270307320790949</v>
+      </c>
+      <c r="D41">
+        <v>0.9768053830227742</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>4.8993464052287578E-2</v>
+      </c>
+      <c r="B42">
+        <v>0.85737634536348029</v>
+      </c>
+      <c r="C42">
+        <v>0.64973450553206025</v>
+      </c>
+      <c r="D42">
+        <v>0.97550326797385623</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>5.2606112054329371E-2</v>
+      </c>
+      <c r="B43">
+        <v>0.88940347043807366</v>
+      </c>
+      <c r="C43">
+        <v>0.52300879519400656</v>
+      </c>
+      <c r="D43">
+        <v>0.97369694397283535</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>3.0229029844542357E-2</v>
+      </c>
+      <c r="B44">
+        <v>0.89974523430356013</v>
+      </c>
+      <c r="C44">
+        <v>0.70840329697104087</v>
+      </c>
+      <c r="D44">
+        <v>0.98488548507772888</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>3.4167177386806975E-2</v>
+      </c>
+      <c r="B45">
+        <v>0.89635261551212508</v>
+      </c>
+      <c r="C45">
+        <v>0.68624599965781385</v>
+      </c>
+      <c r="D45">
+        <v>0.98291641130659646</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2.6492753623188404E-2</v>
+      </c>
+      <c r="B46">
+        <v>0.89855012306534965</v>
+      </c>
+      <c r="C46">
+        <v>0.74300849298509564</v>
+      </c>
+      <c r="D46">
+        <v>0.98675362318840587</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>3.5407397214195065E-2</v>
+      </c>
+      <c r="B47">
+        <v>0.88239788597185664</v>
+      </c>
+      <c r="C47">
+        <v>0.7017271430291433</v>
+      </c>
+      <c r="D47">
+        <v>0.98229630139290258</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>3.104711234482227E-2</v>
+      </c>
+      <c r="B48">
+        <v>0.90248957213747316</v>
+      </c>
+      <c r="C48">
+        <v>0.69629402185241451</v>
+      </c>
+      <c r="D48">
+        <v>0.98447644382758892</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>3.6409468799038433E-2</v>
+      </c>
+      <c r="B49">
+        <v>0.89292608534073914</v>
+      </c>
+      <c r="C49">
+        <v>0.67310863737226234</v>
+      </c>
+      <c r="D49">
+        <v>0.98179526560048092</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2.9530762795649861E-2</v>
+      </c>
+      <c r="B50">
+        <v>0.89401164765441898</v>
+      </c>
+      <c r="C50">
+        <v>0.72600375317095589</v>
+      </c>
+      <c r="D50">
+        <v>0.98523461860217509</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2.6436142270016377E-2</v>
+      </c>
+      <c r="B51">
+        <v>0.89343046730664333</v>
+      </c>
+      <c r="C51">
+        <v>0.75647554998104405</v>
+      </c>
+      <c r="D51">
+        <v>0.98678192886499183</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>3.0504803729072678E-2</v>
+      </c>
+      <c r="B52">
+        <v>0.88604444220008738</v>
+      </c>
+      <c r="C52">
+        <v>0.73029065458956077</v>
+      </c>
+      <c r="D52">
+        <v>0.98474759813546364</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2.7551487414187645E-2</v>
+      </c>
+      <c r="B53">
+        <v>0.88814295385625908</v>
+      </c>
+      <c r="C53">
+        <v>0.75274002755537406</v>
+      </c>
+      <c r="D53">
+        <v>0.98622425629290611</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>4.052575997586181E-2</v>
+      </c>
+      <c r="B54">
+        <v>0.91116407064258376</v>
+      </c>
+      <c r="C54">
+        <v>0.54743019514259317</v>
+      </c>
+      <c r="D54">
+        <v>0.97973712001206914</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>3.5077615263304371E-2</v>
+      </c>
+      <c r="B55">
+        <v>0.91388096426585019</v>
+      </c>
+      <c r="C55">
+        <v>0.58683789729113944</v>
+      </c>
+      <c r="D55">
+        <v>0.98246119236834761</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>3.9912229115822283E-2</v>
+      </c>
+      <c r="B56">
+        <v>0.90683835982655048</v>
+      </c>
+      <c r="C56">
+        <v>0.57093483081234575</v>
+      </c>
+      <c r="D56">
+        <v>0.98004388544208887</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2.4357155870181921E-2</v>
+      </c>
+      <c r="B57">
+        <v>0.89499280809552351</v>
+      </c>
+      <c r="C57">
+        <v>0.76655166446452472</v>
+      </c>
+      <c r="D57">
+        <v>0.98782142206490919</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2.6635421245940698E-2</v>
+      </c>
+      <c r="B58">
+        <v>0.88135064147181341</v>
+      </c>
+      <c r="C58">
+        <v>0.77129360101795874</v>
+      </c>
+      <c r="D58">
+        <v>0.98668228937702973</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2.4513558547663197E-2</v>
+      </c>
+      <c r="B59">
+        <v>0.88623561009678675</v>
+      </c>
+      <c r="C59">
+        <v>0.78062508763526661</v>
+      </c>
+      <c r="D59">
+        <v>0.98774322072616838</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2.8893905191873587E-2</v>
+      </c>
+      <c r="B60">
+        <v>0.88313221975543943</v>
+      </c>
+      <c r="C60">
+        <v>0.75099433888548528</v>
+      </c>
+      <c r="D60">
+        <v>0.98555304740406335</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>2.0488783632655744E-2</v>
+      </c>
+      <c r="B61">
+        <v>0.88829362160905523</v>
+      </c>
+      <c r="C61">
+        <v>0.7965221042958246</v>
+      </c>
+      <c r="D61">
+        <v>0.98975560818367214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1.1774728622689625E-2</v>
+      </c>
+      <c r="B62">
+        <v>0.91934753793008961</v>
+      </c>
+      <c r="C62">
+        <v>0.8423736837477408</v>
+      </c>
+      <c r="D62">
+        <v>0.99411263568865516</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1.7055584392137394E-2</v>
+      </c>
+      <c r="B63">
+        <v>0.89995826678705237</v>
+      </c>
+      <c r="C63">
+        <v>0.81277850107282357</v>
+      </c>
+      <c r="D63">
+        <v>0.99147220780393119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>3.6893810335036914E-2</v>
+      </c>
+      <c r="B64">
+        <v>0.86061788232590697</v>
+      </c>
+      <c r="C64">
+        <v>0.70028601554083192</v>
+      </c>
+      <c r="D64">
+        <v>0.98155309483248154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2.3968284620540025E-2</v>
+      </c>
+      <c r="B65">
+        <v>0.88405331191796077</v>
+      </c>
+      <c r="C65">
+        <v>0.77132302426450128</v>
+      </c>
+      <c r="D65">
+        <v>0.98801585768972988</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2.2277686852154942E-2</v>
+      </c>
+      <c r="B66">
+        <v>0.89458396519651295</v>
+      </c>
+      <c r="C66">
+        <v>0.76706289835765418</v>
+      </c>
+      <c r="D66">
+        <v>0.98886115657392237</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>2.7869302580999452E-2</v>
+      </c>
+      <c r="B67">
+        <v>0.88352288832530312</v>
+      </c>
+      <c r="C67">
+        <v>0.73486885476808739</v>
+      </c>
+      <c r="D67">
+        <v>0.98606534870950024</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>1.8801073567758054E-2</v>
+      </c>
+      <c r="B68">
+        <v>0.90689576988440979</v>
+      </c>
+      <c r="C68">
+        <v>0.77962068385284566</v>
+      </c>
+      <c r="D68">
+        <v>0.99059946321612102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>1.9075893439719618E-2</v>
+      </c>
+      <c r="B69">
+        <v>0.9104594920654957</v>
+      </c>
+      <c r="C69">
+        <v>0.76968578376531227</v>
+      </c>
+      <c r="D69">
+        <v>0.99046205328014014</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>1.8325928917609046E-2</v>
+      </c>
+      <c r="B70">
+        <v>0.90305746761984385</v>
+      </c>
+      <c r="C70">
+        <v>0.79434915131178163</v>
+      </c>
+      <c r="D70">
+        <v>0.99083703554119551</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>3.1925521287223417E-2</v>
+      </c>
+      <c r="B71">
+        <v>0.88421807298669586</v>
+      </c>
+      <c r="C71">
+        <v>0.69434193342826311</v>
+      </c>
+      <c r="D71">
+        <v>0.98403723935638843</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>3.1454650825847585E-2</v>
+      </c>
+      <c r="B72">
+        <v>0.87937309500615046</v>
+      </c>
+      <c r="C72">
+        <v>0.70928398848942942</v>
+      </c>
+      <c r="D72">
+        <v>0.98427267458707624</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>3.3096590909090902E-2</v>
+      </c>
+      <c r="B73">
+        <v>0.87281437943252094</v>
+      </c>
+      <c r="C73">
+        <v>0.70913293431165791</v>
+      </c>
+      <c r="D73">
+        <v>0.98345170454545439</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>1.9037091623679683E-2</v>
+      </c>
+      <c r="B74">
+        <v>0.90497524187408318</v>
+      </c>
+      <c r="C74">
+        <v>0.78332042799283352</v>
+      </c>
+      <c r="D74">
+        <v>0.99048145418816014</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2.2819805621224057E-2</v>
+      </c>
+      <c r="B75">
+        <v>0.88197604191262013</v>
+      </c>
+      <c r="C75">
+        <v>0.78492489897962425</v>
+      </c>
+      <c r="D75">
+        <v>0.98859009718938817</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>3.0237744872620251E-2</v>
+      </c>
+      <c r="B76">
+        <v>0.88693595697518146</v>
+      </c>
+      <c r="C76">
+        <v>0.70506495583834394</v>
+      </c>
+      <c r="D76">
+        <v>0.98488112756368984</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>2.7636808454521475E-2</v>
+      </c>
+      <c r="B77">
+        <v>0.88961758823087234</v>
+      </c>
+      <c r="C77">
+        <v>0.72294473075670351</v>
+      </c>
+      <c r="D77">
+        <v>0.98618159577273934</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>1.3817710169292372E-2</v>
+      </c>
+      <c r="B78">
+        <v>0.91485889348311744</v>
+      </c>
+      <c r="C78">
+        <v>0.82411558199656298</v>
+      </c>
+      <c r="D78">
+        <v>0.99309114491535377</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>1.6698019650141602E-2</v>
+      </c>
+      <c r="B79">
+        <v>0.88314004170533633</v>
+      </c>
+      <c r="C79">
+        <v>0.84090177227195273</v>
+      </c>
+      <c r="D79">
+        <v>0.99165099017492908</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>1.0976069342377992E-2</v>
+      </c>
+      <c r="B80">
+        <v>0.9212945532085105</v>
+      </c>
+      <c r="C80">
+        <v>0.85086772558398971</v>
+      </c>
+      <c r="D80">
+        <v>0.99451196532881103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>2.0488783632655744E-2</v>
+      </c>
+      <c r="B81">
+        <v>0.88829362160905523</v>
+      </c>
+      <c r="C81">
+        <v>0.7965221042958246</v>
+      </c>
+      <c r="D81">
+        <v>0.98975560818367214</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>1.1774728622689625E-2</v>
+      </c>
+      <c r="B82">
+        <v>0.91934753793008961</v>
+      </c>
+      <c r="C82">
+        <v>0.8423736837477408</v>
+      </c>
+      <c r="D82">
+        <v>0.99411263568865516</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>1.7055584392137394E-2</v>
+      </c>
+      <c r="B83">
+        <v>0.89995826678705237</v>
+      </c>
+      <c r="C83">
+        <v>0.81277850107282357</v>
+      </c>
+      <c r="D83">
+        <v>0.99147220780393119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>3.6893810335036914E-2</v>
+      </c>
+      <c r="B84">
+        <v>0.86061788232590697</v>
+      </c>
+      <c r="C84">
+        <v>0.70028601554083192</v>
+      </c>
+      <c r="D84">
+        <v>0.98155309483248154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>2.3968284620540025E-2</v>
+      </c>
+      <c r="B85">
+        <v>0.88405331191796077</v>
+      </c>
+      <c r="C85">
+        <v>0.77132302426450128</v>
+      </c>
+      <c r="D85">
+        <v>0.98801585768972988</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>2.2277686852154942E-2</v>
+      </c>
+      <c r="B86">
+        <v>0.89458396519651295</v>
+      </c>
+      <c r="C86">
+        <v>0.76706289835765418</v>
+      </c>
+      <c r="D86">
+        <v>0.98886115657392237</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>2.7869302580999452E-2</v>
+      </c>
+      <c r="B87">
+        <v>0.88352288832530312</v>
+      </c>
+      <c r="C87">
+        <v>0.73486885476808739</v>
+      </c>
+      <c r="D87">
+        <v>0.98606534870950024</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>1.8801073567758054E-2</v>
+      </c>
+      <c r="B88">
+        <v>0.90689576988440979</v>
+      </c>
+      <c r="C88">
+        <v>0.77962068385284566</v>
+      </c>
+      <c r="D88">
+        <v>0.99059946321612102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>1.9075893439719618E-2</v>
+      </c>
+      <c r="B89">
+        <v>0.9104594920654957</v>
+      </c>
+      <c r="C89">
+        <v>0.76968578376531227</v>
+      </c>
+      <c r="D89">
+        <v>0.99046205328014014</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>1.8325928917609046E-2</v>
+      </c>
+      <c r="B90">
+        <v>0.90305746761984385</v>
+      </c>
+      <c r="C90">
+        <v>0.79434915131178163</v>
+      </c>
+      <c r="D90">
+        <v>0.99083703554119551</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>3.1925521287223417E-2</v>
+      </c>
+      <c r="B91">
+        <v>0.88421807298669586</v>
+      </c>
+      <c r="C91">
+        <v>0.69434193342826311</v>
+      </c>
+      <c r="D91">
+        <v>0.98403723935638843</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>3.1454650825847585E-2</v>
+      </c>
+      <c r="B92">
+        <v>0.87937309500615046</v>
+      </c>
+      <c r="C92">
+        <v>0.70928398848942942</v>
+      </c>
+      <c r="D92">
+        <v>0.98427267458707624</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>3.3096590909090902E-2</v>
+      </c>
+      <c r="B93">
+        <v>0.87281437943252094</v>
+      </c>
+      <c r="C93">
+        <v>0.70913293431165791</v>
+      </c>
+      <c r="D93">
+        <v>0.98345170454545439</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>1.9037091623679683E-2</v>
+      </c>
+      <c r="B94">
+        <v>0.90497524187408318</v>
+      </c>
+      <c r="C94">
+        <v>0.78332042799283352</v>
+      </c>
+      <c r="D94">
+        <v>0.99048145418816014</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>2.2819805621224057E-2</v>
+      </c>
+      <c r="B95">
+        <v>0.88197604191262013</v>
+      </c>
+      <c r="C95">
+        <v>0.78492489897962425</v>
+      </c>
+      <c r="D95">
+        <v>0.98859009718938817</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>3.0237744872620251E-2</v>
+      </c>
+      <c r="B96">
+        <v>0.88693595697518146</v>
+      </c>
+      <c r="C96">
+        <v>0.70506495583834394</v>
+      </c>
+      <c r="D96">
+        <v>0.98488112756368984</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>2.7636808454521475E-2</v>
+      </c>
+      <c r="B97">
+        <v>0.88961758823087234</v>
+      </c>
+      <c r="C97">
+        <v>0.72294473075670351</v>
+      </c>
+      <c r="D97">
+        <v>0.98618159577273934</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>1.3817710169292372E-2</v>
+      </c>
+      <c r="B98">
+        <v>0.91485889348311744</v>
+      </c>
+      <c r="C98">
+        <v>0.82411558199656298</v>
+      </c>
+      <c r="D98">
+        <v>0.99309114491535377</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>1.6698019650141602E-2</v>
+      </c>
+      <c r="B99">
+        <v>0.88314004170533633</v>
+      </c>
+      <c r="C99">
+        <v>0.84090177227195273</v>
+      </c>
+      <c r="D99">
+        <v>0.99165099017492908</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>1.0976069342377992E-2</v>
+      </c>
+      <c r="B100">
+        <v>0.9212945532085105</v>
+      </c>
+      <c r="C100">
+        <v>0.85086772558398971</v>
+      </c>
+      <c r="D100">
+        <v>0.99451196532881103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>1.210225096063431E-3</v>
+      </c>
+      <c r="B101">
+        <v>0.8316337244575065</v>
+      </c>
+      <c r="C101">
+        <v>0.99205449135550339</v>
+      </c>
+      <c r="D101">
+        <v>0.99939488745196836</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>1.7210493491328409E-2</v>
+      </c>
+      <c r="B102">
+        <v>0.79764462134008796</v>
+      </c>
+      <c r="C102">
+        <v>0.89891790164375662</v>
+      </c>
+      <c r="D102">
+        <v>0.99139475325433579</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>1.2722326846620634E-2</v>
+      </c>
+      <c r="B103">
+        <v>0.91868457039791429</v>
+      </c>
+      <c r="C103">
+        <v>0.83129810928963788</v>
+      </c>
+      <c r="D103">
+        <v>0.99363883657668961</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>4.7595190380761527E-3</v>
+      </c>
+      <c r="B104">
+        <v>0.78852504386749878</v>
+      </c>
+      <c r="C104">
+        <v>0.97277014746786139</v>
+      </c>
+      <c r="D104">
+        <v>0.99762024048096187</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>2.7693543250391172E-4</v>
+      </c>
+      <c r="B105">
+        <v>0.91971081429329893</v>
+      </c>
+      <c r="C105">
+        <v>0.99649509800595837</v>
+      </c>
+      <c r="D105">
+        <v>0.99986153228374797</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>2.1098446145884475E-3</v>
+      </c>
+      <c r="B106">
+        <v>0.80122624674190535</v>
+      </c>
+      <c r="C106">
+        <v>0.9880606336467892</v>
+      </c>
+      <c r="D106">
+        <v>0.99894507769270591</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>1.1690353671485745E-3</v>
+      </c>
+      <c r="B107">
+        <v>0.85049239734919047</v>
+      </c>
+      <c r="C107">
+        <v>0.99123956626948106</v>
+      </c>
+      <c r="D107">
+        <v>0.99941548231642585</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>3.7465564738292011E-4</v>
+      </c>
+      <c r="B108">
+        <v>0.91129154167796733</v>
+      </c>
+      <c r="C108">
+        <v>0.99579796656269681</v>
+      </c>
+      <c r="D108">
+        <v>0.99981267217630854</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>4.5571844287047708E-4</v>
+      </c>
+      <c r="B109">
+        <v>0.86934901805309295</v>
+      </c>
+      <c r="C109">
+        <v>0.99633183313151319</v>
+      </c>
+      <c r="D109">
+        <v>0.99977214077856469</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>1.8074031231925968E-4</v>
+      </c>
+      <c r="B110">
+        <v>0.94603016766919257</v>
+      </c>
+      <c r="C110">
+        <v>0.9964703786280612</v>
+      </c>
+      <c r="D110">
+        <v>0.99990962984384035</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>1.9743036782796222E-4</v>
+      </c>
+      <c r="B111">
+        <v>0.9357036019258731</v>
+      </c>
+      <c r="C111">
+        <v>0.99673197987056328</v>
+      </c>
+      <c r="D111">
+        <v>0.99990128481608609</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>5.3701572688914464E-4</v>
+      </c>
+      <c r="B112">
+        <v>0.86180463028441912</v>
+      </c>
+      <c r="C112">
+        <v>0.99562205192250619</v>
+      </c>
+      <c r="D112">
+        <v>0.99973149213655543</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>1.8755991497283855E-4</v>
+      </c>
+      <c r="B113">
+        <v>0.92810637264319151</v>
+      </c>
+      <c r="C113">
+        <v>0.99741870599339388</v>
+      </c>
+      <c r="D113">
+        <v>0.99990622004251362</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>7.7647657841140537E-4</v>
+      </c>
+      <c r="B114">
+        <v>0.85645748419826984</v>
+      </c>
+      <c r="C114">
+        <v>0.99427819564615361</v>
+      </c>
+      <c r="D114">
+        <v>0.99961176171079424</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>2.1641077042234267E-3</v>
+      </c>
+      <c r="B115">
+        <v>0.80245730643581714</v>
+      </c>
+      <c r="C115">
+        <v>0.98714030522830232</v>
+      </c>
+      <c r="D115">
+        <v>0.9989179461478882</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>3.8876889848812093E-4</v>
+      </c>
+      <c r="B116">
+        <v>0.90044346620624616</v>
+      </c>
+      <c r="C116">
+        <v>0.99582955999672895</v>
+      </c>
+      <c r="D116">
+        <v>0.99980561555075598</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>3.1502932195996702E-4</v>
+      </c>
+      <c r="B117">
+        <v>0.89848139205634547</v>
+      </c>
+      <c r="C117">
+        <v>0.99665448435238602</v>
+      </c>
+      <c r="D117">
+        <v>0.99984248533901998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>1.1164000392580233E-3</v>
+      </c>
+      <c r="B118">
+        <v>0.84114844939217903</v>
+      </c>
+      <c r="C118">
+        <v>0.99250065349492567</v>
+      </c>
+      <c r="D118">
+        <v>0.99944179998037108</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>1.0188509095954079E-3</v>
+      </c>
+      <c r="B119">
+        <v>0.84085881161566045</v>
+      </c>
+      <c r="C119">
+        <v>0.99301247017715211</v>
+      </c>
+      <c r="D119">
+        <v>0.99949057454520218</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>1.3202442270964755E-3</v>
+      </c>
+      <c r="B120">
+        <v>0.8134431918555346</v>
+      </c>
+      <c r="C120">
+        <v>0.99198468855485078</v>
+      </c>
+      <c r="D120">
+        <v>0.99933987788645184</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>1.7864923747276688E-3</v>
+      </c>
+      <c r="B121">
+        <v>0.95490128925232609</v>
+      </c>
+      <c r="C121">
+        <v>0.97983553376809462</v>
+      </c>
+      <c r="D121">
+        <v>0.99910675381263614</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>7.791741472172352E-3</v>
+      </c>
+      <c r="B122">
+        <v>0.82103109911367089</v>
+      </c>
+      <c r="C122">
+        <v>0.94873212464269541</v>
+      </c>
+      <c r="D122">
+        <v>0.9961041292639139</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>6.6412550800645197E-3</v>
+      </c>
+      <c r="B123">
+        <v>0.88991580811261628</v>
+      </c>
+      <c r="C123">
+        <v>0.93307406791267522</v>
+      </c>
+      <c r="D123">
+        <v>0.99667937245996774</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>3.2122082320889477E-3</v>
+      </c>
+      <c r="B124">
+        <v>0.76587123851323968</v>
+      </c>
+      <c r="C124">
+        <v>0.98307828414107656</v>
+      </c>
+      <c r="D124">
+        <v>0.99839389588395555</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>2.9356691738868259E-4</v>
+      </c>
+      <c r="B125">
+        <v>0.89911928253005302</v>
+      </c>
+      <c r="C125">
+        <v>0.99679889308330694</v>
+      </c>
+      <c r="D125">
+        <v>0.99985321654130566</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>4.0188986257327138E-4</v>
+      </c>
+      <c r="B126">
+        <v>0.90495516389082309</v>
+      </c>
+      <c r="C126">
+        <v>0.99565568663266457</v>
+      </c>
+      <c r="D126">
+        <v>0.99979905506871336</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>3.1467778560801819E-3</v>
+      </c>
+      <c r="B127">
+        <v>0.83684866179837702</v>
+      </c>
+      <c r="C127">
+        <v>0.97782903187935744</v>
+      </c>
+      <c r="D127">
+        <v>0.99842661107195996</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>6.7196632561205985E-4</v>
+      </c>
+      <c r="B128">
+        <v>0.82125760938455417</v>
+      </c>
+      <c r="C128">
+        <v>0.99556994583969927</v>
+      </c>
+      <c r="D128">
+        <v>0.99966401683719397</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>2.0870297074746368E-3</v>
+      </c>
+      <c r="B129">
+        <v>0.92535829232398348</v>
+      </c>
+      <c r="C129">
+        <v>0.98168164967107341</v>
+      </c>
+      <c r="D129">
+        <v>0.99895648514626267</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>1.4739600393056009E-3</v>
+      </c>
+      <c r="B130">
+        <v>0.95950950977078864</v>
+      </c>
+      <c r="C130">
+        <v>0.98160659478203738</v>
+      </c>
+      <c r="D130">
+        <v>0.99926301998034717</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>4.2277084463736665E-3</v>
+      </c>
+      <c r="B131">
+        <v>0.85669360544949802</v>
+      </c>
+      <c r="C131">
+        <v>0.96721011220666797</v>
+      </c>
+      <c r="D131">
+        <v>0.997886145776813</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>5.6719408350275498E-4</v>
+      </c>
+      <c r="B132">
+        <v>0.9592280974803532</v>
+      </c>
+      <c r="C132">
+        <v>0.99114608664603721</v>
+      </c>
+      <c r="D132">
+        <v>0.9997164029582486</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>1.0196905766526022E-3</v>
+      </c>
+      <c r="B133">
+        <v>0.95991660710965454</v>
+      </c>
+      <c r="C133">
+        <v>0.98543571632039006</v>
+      </c>
+      <c r="D133">
+        <v>0.99949015471167357</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>1.987083954297069E-4</v>
+      </c>
+      <c r="B134">
+        <v>0.91001289541359986</v>
+      </c>
+      <c r="C134">
+        <v>0.99759314363492735</v>
+      </c>
+      <c r="D134">
+        <v>0.9999006458022851</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>2.8032704822292674E-3</v>
+      </c>
+      <c r="B135">
+        <v>0.77540429865407834</v>
+      </c>
+      <c r="C135">
+        <v>0.98480116767112469</v>
+      </c>
+      <c r="D135">
+        <v>0.99859836475888519</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>6.24201195629767E-3</v>
+      </c>
+      <c r="B136">
+        <v>0.87113652527631757</v>
+      </c>
+      <c r="C136">
+        <v>0.94535838632348923</v>
+      </c>
+      <c r="D136">
+        <v>0.99687899402185109</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>4.4459036128096741E-4</v>
+      </c>
+      <c r="B137">
+        <v>0.89408736691035029</v>
+      </c>
+      <c r="C137">
+        <v>0.99535794587796533</v>
+      </c>
+      <c r="D137">
+        <v>0.99977770481935946</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>1.9275506812894652E-4</v>
+      </c>
+      <c r="B138">
+        <v>0.90729353620240372</v>
+      </c>
+      <c r="C138">
+        <v>0.99772902097960003</v>
+      </c>
+      <c r="D138">
+        <v>0.99990362246593545</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>1.350372580070956E-3</v>
+      </c>
+      <c r="B139">
+        <v>0.81032378361470325</v>
+      </c>
+      <c r="C139">
+        <v>0.9915322760261851</v>
+      </c>
+      <c r="D139">
+        <v>0.99932481370996462</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>7.4272133095662518E-4</v>
+      </c>
+      <c r="B140">
+        <v>0.84796292446792143</v>
+      </c>
+      <c r="C140">
+        <v>0.99476981884130888</v>
+      </c>
+      <c r="D140">
+        <v>0.99962863933452162</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>3.5518373155225047E-2</v>
+      </c>
+      <c r="B141">
+        <v>0.88122426201784854</v>
+      </c>
+      <c r="C141">
+        <v>0.66671049758189305</v>
+      </c>
+      <c r="D141">
+        <v>0.98224081342238756</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>5.8205386357915938E-2</v>
+      </c>
+      <c r="B142">
+        <v>0.88043815612023302</v>
+      </c>
+      <c r="C142">
+        <v>0.45852210364005264</v>
+      </c>
+      <c r="D142">
+        <v>0.97089730682104192</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>4.6398191998001208E-2</v>
+      </c>
+      <c r="B143">
+        <v>0.87574077867030198</v>
+      </c>
+      <c r="C143">
+        <v>0.58341825994632324</v>
+      </c>
+      <c r="D143">
+        <v>0.97680090400099939</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>3.6746971718069982E-2</v>
+      </c>
+      <c r="B144">
+        <v>0.88327995253533143</v>
+      </c>
+      <c r="C144">
+        <v>0.64977399938874614</v>
+      </c>
+      <c r="D144">
+        <v>0.98162651414096502</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>2.1858815457483066E-2</v>
+      </c>
+      <c r="B145">
+        <v>0.90459752841507168</v>
+      </c>
+      <c r="C145">
+        <v>0.74950502259286933</v>
+      </c>
+      <c r="D145">
+        <v>0.9890705922712586</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>4.5279322044697895E-2</v>
+      </c>
+      <c r="B146">
+        <v>0.8852821029545519</v>
+      </c>
+      <c r="C146">
+        <v>0.56207017421070271</v>
+      </c>
+      <c r="D146">
+        <v>0.97736033897765107</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>5.3077541181197271E-2</v>
+      </c>
+      <c r="B147">
+        <v>0.87792576930788013</v>
+      </c>
+      <c r="C147">
+        <v>0.51501018846928082</v>
+      </c>
+      <c r="D147">
+        <v>0.97346122940940139</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>5.0418070107141041E-2</v>
+      </c>
+      <c r="B148">
+        <v>0.89136956195853878</v>
+      </c>
+      <c r="C148">
+        <v>0.48816104117175779</v>
+      </c>
+      <c r="D148">
+        <v>0.97479096494642958</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>5.0637746895708685E-2</v>
+      </c>
+      <c r="B149">
+        <v>0.89465460773262395</v>
+      </c>
+      <c r="C149">
+        <v>0.47124347729557947</v>
+      </c>
+      <c r="D149">
+        <v>0.97468112655214556</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>5.8783895689356644E-2</v>
+      </c>
+      <c r="B150">
+        <v>0.88062569726417006</v>
+      </c>
+      <c r="C150">
+        <v>0.45229466710321459</v>
+      </c>
+      <c r="D150">
+        <v>0.97060805215532164</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>4.8743308525917226E-2</v>
+      </c>
+      <c r="B151">
+        <v>0.89545161734889045</v>
+      </c>
+      <c r="C151">
+        <v>0.48741481028704925</v>
+      </c>
+      <c r="D151">
+        <v>0.97562834573704127</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>4.4312576012243948E-2</v>
+      </c>
+      <c r="B152">
+        <v>0.89331867612861826</v>
+      </c>
+      <c r="C152">
+        <v>0.5423180690178343</v>
+      </c>
+      <c r="D152">
+        <v>0.97784371199387798</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>3.7378405016641192E-2</v>
+      </c>
+      <c r="B153">
+        <v>0.90813428574874444</v>
+      </c>
+      <c r="C153">
+        <v>0.55713785474032651</v>
+      </c>
+      <c r="D153">
+        <v>0.98131079749167949</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>5.6798926264575111E-2</v>
+      </c>
+      <c r="B154">
+        <v>0.88146585504683095</v>
+      </c>
+      <c r="C154">
+        <v>0.46752620108497311</v>
+      </c>
+      <c r="D154">
+        <v>0.97160053686771242</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>4.9126886984904125E-2</v>
+      </c>
+      <c r="B155">
+        <v>0.87650693073573605</v>
+      </c>
+      <c r="C155">
+        <v>0.55564158107640904</v>
+      </c>
+      <c r="D155">
+        <v>0.9754365565075479</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>4.2484688312777921E-2</v>
+      </c>
+      <c r="B156">
+        <v>0.91492893329954739</v>
+      </c>
+      <c r="C156">
+        <v>0.45991881257995554</v>
+      </c>
+      <c r="D156">
+        <v>0.97875765584361107</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>3.9634146341463415E-2</v>
+      </c>
+      <c r="B157">
+        <v>0.92069072538755226</v>
+      </c>
+      <c r="C157">
+        <v>0.4621950944960419</v>
+      </c>
+      <c r="D157">
+        <v>0.98018292682926833</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>5.0165077035950113E-2</v>
+      </c>
+      <c r="B158">
+        <v>0.8963121879689625</v>
+      </c>
+      <c r="C158">
+        <v>0.46858784848084639</v>
+      </c>
+      <c r="D158">
+        <v>0.97491746148202496</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>4.5132509766656115E-2</v>
+      </c>
+      <c r="B159">
+        <v>0.87411085209802764</v>
+      </c>
+      <c r="C159">
+        <v>0.59844467678599333</v>
+      </c>
+      <c r="D159">
+        <v>0.97743374511667203</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>5.2282214156079865E-2</v>
+      </c>
+      <c r="B160">
+        <v>0.89097801471725491</v>
+      </c>
+      <c r="C160">
+        <v>0.47094188601980902</v>
+      </c>
+      <c r="D160">
+        <v>0.97385889292196015</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>2.6568893139911791E-5</v>
+      </c>
+      <c r="B161">
+        <v>0.78570100044410762</v>
+      </c>
+      <c r="C161">
+        <v>0.99984945133131287</v>
+      </c>
+      <c r="D161">
+        <v>0.99998671555342999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>5.1832745521222648E-2</v>
+      </c>
+      <c r="B162">
+        <v>0.86342781532696133</v>
+      </c>
+      <c r="C162">
+        <v>0.57132917219236889</v>
+      </c>
+      <c r="D162">
+        <v>0.97408362723938868</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>5.1334332833583206E-2</v>
+      </c>
+      <c r="B163">
+        <v>0.8909411726943024</v>
+      </c>
+      <c r="C163">
+        <v>0.48072659142692531</v>
+      </c>
+      <c r="D163">
+        <v>0.97433283358320844</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>5.3525003823214556E-4</v>
+      </c>
+      <c r="B164">
+        <v>0.77245933219476015</v>
+      </c>
+      <c r="C164">
+        <v>0.99711270953455089</v>
+      </c>
+      <c r="D164">
+        <v>0.99973237498088385</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>6.8616771527842985E-2</v>
+      </c>
+      <c r="B165">
+        <v>0.85968880668179071</v>
+      </c>
+      <c r="C165">
+        <v>0.44705950455498256</v>
+      </c>
+      <c r="D165">
+        <v>0.96569161423607852</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>1.4735390017557061E-2</v>
+      </c>
+      <c r="B166">
+        <v>0.87843506042929465</v>
+      </c>
+      <c r="C166">
+        <v>0.86427230088914264</v>
+      </c>
+      <c r="D166">
+        <v>0.99263230499122146</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>6.758444847530716E-2</v>
+      </c>
+      <c r="B167">
+        <v>0.85695871770822807</v>
+      </c>
+      <c r="C167">
+        <v>0.46450160438133248</v>
+      </c>
+      <c r="D167">
+        <v>0.9662077757623464</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>1.8337184142003153E-5</v>
+      </c>
+      <c r="B168">
+        <v>-9.1686761348528851E-6</v>
+      </c>
+      <c r="C168">
+        <v>0.99996332613609451</v>
+      </c>
+      <c r="D168">
+        <v>0.99999083140792899</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>7.8524720893141942E-2</v>
+      </c>
+      <c r="B169">
+        <v>0.84289505600387815</v>
+      </c>
+      <c r="C169">
+        <v>0.42781805307545362</v>
+      </c>
+      <c r="D169">
+        <v>0.96073763955342895</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>5.9888184127254412E-2</v>
+      </c>
+      <c r="B170">
+        <v>0.87643594560344673</v>
+      </c>
+      <c r="C170">
+        <v>0.45915360367611646</v>
+      </c>
+      <c r="D170">
+        <v>0.97005590793637275</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>6.7828595156530377E-2</v>
+      </c>
+      <c r="B171">
+        <v>0.85883970431177581</v>
+      </c>
+      <c r="C171">
+        <v>0.45626700515573426</v>
+      </c>
+      <c r="D171">
+        <v>0.96608570242173486</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>6.3146997929606624E-2</v>
+      </c>
+      <c r="B172">
+        <v>0.85938675881672233</v>
+      </c>
+      <c r="C172">
+        <v>0.49183182100668449</v>
+      </c>
+      <c r="D172">
+        <v>0.96842650103519679</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>6.2035047777849045E-2</v>
+      </c>
+      <c r="B173">
+        <v>0.86778937236347353</v>
+      </c>
+      <c r="C173">
+        <v>0.4726126059289415</v>
+      </c>
+      <c r="D173">
+        <v>0.96898247611107557</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>1.6430921052631581E-2</v>
+      </c>
+      <c r="B174">
+        <v>0.84202381619765942</v>
+      </c>
+      <c r="C174">
+        <v>0.87983050936120377</v>
+      </c>
+      <c r="D174">
+        <v>0.99178453947368428</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>2.5884790716949855E-2</v>
+      </c>
+      <c r="B175">
+        <v>0.88980953667132079</v>
+      </c>
+      <c r="C175">
+        <v>0.73987869474797119</v>
+      </c>
+      <c r="D175">
+        <v>0.98705760464152514</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>7.2356137128864378E-2</v>
+      </c>
+      <c r="B176">
+        <v>0.85533028904586539</v>
+      </c>
+      <c r="C176">
+        <v>0.43294835544015531</v>
+      </c>
+      <c r="D176">
+        <v>0.96382193143556794</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>7.3333495405260851E-2</v>
+      </c>
+      <c r="B177">
+        <v>0.85275333746923232</v>
+      </c>
+      <c r="C177">
+        <v>0.43402987406505328</v>
+      </c>
+      <c r="D177">
+        <v>0.96333325229736966</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>7.3539162867799407E-2</v>
+      </c>
+      <c r="B178">
+        <v>0.85272802971490336</v>
+      </c>
+      <c r="C178">
+        <v>0.4328216504433009</v>
+      </c>
+      <c r="D178">
+        <v>0.96323041856610014</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>5.2362417012098539E-2</v>
+      </c>
+      <c r="B179">
+        <v>0.88539442500710219</v>
+      </c>
+      <c r="C179">
+        <v>0.49349001135910098</v>
+      </c>
+      <c r="D179">
+        <v>0.97381879149395068</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>2.4843250916834262E-4</v>
+      </c>
+      <c r="B180">
+        <v>0.70410108366916779</v>
+      </c>
+      <c r="C180">
+        <v>0.99891204347449247</v>
+      </c>
+      <c r="D180">
+        <v>0.99987578374541575</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>2.6568893139911791E-5</v>
+      </c>
+      <c r="B181">
+        <v>0.78570100044410762</v>
+      </c>
+      <c r="C181">
+        <v>0.99984945133131287</v>
+      </c>
+      <c r="D181">
+        <v>0.99998671555342999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>5.1832745521222648E-2</v>
+      </c>
+      <c r="B182">
+        <v>0.86342781532696133</v>
+      </c>
+      <c r="C182">
+        <v>0.57132917219236889</v>
+      </c>
+      <c r="D182">
+        <v>0.97408362723938868</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>5.1334332833583206E-2</v>
+      </c>
+      <c r="B183">
+        <v>0.8909411726943024</v>
+      </c>
+      <c r="C183">
+        <v>0.48072659142692531</v>
+      </c>
+      <c r="D183">
+        <v>0.97433283358320844</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>5.3525003823214556E-4</v>
+      </c>
+      <c r="B184">
+        <v>0.77245933219476015</v>
+      </c>
+      <c r="C184">
+        <v>0.99711270953455089</v>
+      </c>
+      <c r="D184">
+        <v>0.99973237498088385</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>6.8616771527842985E-2</v>
+      </c>
+      <c r="B185">
+        <v>0.85968880668179071</v>
+      </c>
+      <c r="C185">
+        <v>0.44705950455498256</v>
+      </c>
+      <c r="D185">
+        <v>0.96569161423607852</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>1.4735390017557061E-2</v>
+      </c>
+      <c r="B186">
+        <v>0.87843506042929465</v>
+      </c>
+      <c r="C186">
+        <v>0.86427230088914264</v>
+      </c>
+      <c r="D186">
+        <v>0.99263230499122146</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>6.758444847530716E-2</v>
+      </c>
+      <c r="B187">
+        <v>0.85695871770822807</v>
+      </c>
+      <c r="C187">
+        <v>0.46450160438133248</v>
+      </c>
+      <c r="D187">
+        <v>0.9662077757623464</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>1.8337184142003153E-5</v>
+      </c>
+      <c r="B188">
+        <v>-9.1686761348528851E-6</v>
+      </c>
+      <c r="C188">
+        <v>0.99996332613609451</v>
+      </c>
+      <c r="D188">
+        <v>0.99999083140792899</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>7.8524720893141942E-2</v>
+      </c>
+      <c r="B189">
+        <v>0.84289505600387815</v>
+      </c>
+      <c r="C189">
+        <v>0.42781805307545362</v>
+      </c>
+      <c r="D189">
+        <v>0.96073763955342895</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>5.9888184127254412E-2</v>
+      </c>
+      <c r="B190">
+        <v>0.87643594560344673</v>
+      </c>
+      <c r="C190">
+        <v>0.45915360367611646</v>
+      </c>
+      <c r="D190">
+        <v>0.97005590793637275</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>6.7828595156530377E-2</v>
+      </c>
+      <c r="B191">
+        <v>0.85883970431177581</v>
+      </c>
+      <c r="C191">
+        <v>0.45626700515573426</v>
+      </c>
+      <c r="D191">
+        <v>0.96608570242173486</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>6.3146997929606624E-2</v>
+      </c>
+      <c r="B192">
+        <v>0.85938675881672233</v>
+      </c>
+      <c r="C192">
+        <v>0.49183182100668449</v>
+      </c>
+      <c r="D192">
+        <v>0.96842650103519679</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>6.2035047777849045E-2</v>
+      </c>
+      <c r="B193">
+        <v>0.86778937236347353</v>
+      </c>
+      <c r="C193">
+        <v>0.4726126059289415</v>
+      </c>
+      <c r="D193">
+        <v>0.96898247611107557</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>1.6430921052631581E-2</v>
+      </c>
+      <c r="B194">
+        <v>0.84202381619765942</v>
+      </c>
+      <c r="C194">
+        <v>0.87983050936120377</v>
+      </c>
+      <c r="D194">
+        <v>0.99178453947368428</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>2.5884790716949855E-2</v>
+      </c>
+      <c r="B195">
+        <v>0.88980953667132079</v>
+      </c>
+      <c r="C195">
+        <v>0.73987869474797119</v>
+      </c>
+      <c r="D195">
+        <v>0.98705760464152514</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>7.2356137128864378E-2</v>
+      </c>
+      <c r="B196">
+        <v>0.85533028904586539</v>
+      </c>
+      <c r="C196">
+        <v>0.43294835544015531</v>
+      </c>
+      <c r="D196">
+        <v>0.96382193143556794</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>7.3333495405260851E-2</v>
+      </c>
+      <c r="B197">
+        <v>0.85275333746923232</v>
+      </c>
+      <c r="C197">
+        <v>0.43402987406505328</v>
+      </c>
+      <c r="D197">
+        <v>0.96333325229736966</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>7.3539162867799407E-2</v>
+      </c>
+      <c r="B198">
+        <v>0.85272802971490336</v>
+      </c>
+      <c r="C198">
+        <v>0.4328216504433009</v>
+      </c>
+      <c r="D198">
+        <v>0.96323041856610014</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>5.2362417012098539E-2</v>
+      </c>
+      <c r="B199">
+        <v>0.88539442500710219</v>
+      </c>
+      <c r="C199">
+        <v>0.49349001135910098</v>
+      </c>
+      <c r="D199">
+        <v>0.97381879149395068</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>2.4843250916834262E-4</v>
+      </c>
+      <c r="B200">
+        <v>0.70410108366916779</v>
+      </c>
+      <c r="C200">
+        <v>0.99891204347449247</v>
+      </c>
+      <c r="D200">
+        <v>0.99987578374541575</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>2.7588018917498684E-3</v>
+      </c>
+      <c r="B201">
+        <v>0.75638288971167056</v>
+      </c>
+      <c r="C201">
+        <v>0.98592520918355198</v>
+      </c>
+      <c r="D201">
+        <v>0.99862059905412504</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>2.0704159356645492E-3</v>
+      </c>
+      <c r="B202">
+        <v>0.81860797943079733</v>
+      </c>
+      <c r="C202">
+        <v>0.9865198534131111</v>
+      </c>
+      <c r="D202">
+        <v>0.9989647920321677</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>5.3230578816066826E-3</v>
+      </c>
+      <c r="B203">
+        <v>0.78047086911966557</v>
+      </c>
+      <c r="C203">
+        <v>0.97049487186141636</v>
+      </c>
+      <c r="D203">
+        <v>0.99733847105919671</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>5.4083124575111056E-3</v>
+      </c>
+      <c r="B204">
+        <v>0.78494644279012726</v>
+      </c>
+      <c r="C204">
+        <v>0.96947287820516603</v>
+      </c>
+      <c r="D204">
+        <v>0.99729584377124447</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>4.9116955639857077E-3</v>
+      </c>
+      <c r="B205">
+        <v>0.77076708834610042</v>
+      </c>
+      <c r="C205">
+        <v>0.97369009136500295</v>
+      </c>
+      <c r="D205">
+        <v>0.99754415221800719</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>8.7947522803069871E-3</v>
+      </c>
+      <c r="B206">
+        <v>0.78891752034035401</v>
+      </c>
+      <c r="C206">
+        <v>0.94962846492099606</v>
+      </c>
+      <c r="D206">
+        <v>0.99560262385984655</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>1.042153768217598E-2</v>
+      </c>
+      <c r="B207">
+        <v>0.8004204709789472</v>
+      </c>
+      <c r="C207">
+        <v>0.93746992267268758</v>
+      </c>
+      <c r="D207">
+        <v>0.99478923115891205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>1.3601609657947687E-2</v>
+      </c>
+      <c r="B208">
+        <v>0.81851051345135395</v>
+      </c>
+      <c r="C208">
+        <v>0.9116405292474723</v>
+      </c>
+      <c r="D208">
+        <v>0.99319919517102617</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>3.1110497094453991E-2</v>
+      </c>
+      <c r="B209">
+        <v>0.90082064123270977</v>
+      </c>
+      <c r="C209">
+        <v>0.65617911924842831</v>
+      </c>
+      <c r="D209">
+        <v>0.98444475145277299</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>8.7871256056840149E-3</v>
+      </c>
+      <c r="B210">
+        <v>0.87397716465903585</v>
+      </c>
+      <c r="C210">
+        <v>0.92156370453395864</v>
+      </c>
+      <c r="D210">
+        <v>0.99560643719715802</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>3.3732811306340718E-3</v>
+      </c>
+      <c r="B211">
+        <v>0.78924971122758347</v>
+      </c>
+      <c r="C211">
+        <v>0.98063239664105173</v>
+      </c>
+      <c r="D211">
+        <v>0.99831335943468291</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>2.9335071707953064E-3</v>
+      </c>
+      <c r="B212">
+        <v>0.73891220426625237</v>
+      </c>
+      <c r="C212">
+        <v>0.98583950233667572</v>
+      </c>
+      <c r="D212">
+        <v>0.99853324641460228</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>3.9409799174878107E-2</v>
+      </c>
+      <c r="B213">
+        <v>0.91310087596658751</v>
+      </c>
+      <c r="C213">
+        <v>0.50863199792451486</v>
+      </c>
+      <c r="D213">
+        <v>0.98029510041256085</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>2.8647845120209755E-3</v>
+      </c>
+      <c r="B214">
+        <v>0.78552614774776108</v>
+      </c>
+      <c r="C214">
+        <v>0.98378777457259037</v>
+      </c>
+      <c r="D214">
+        <v>0.99856760774398945</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>1.2055267702936096E-2</v>
+      </c>
+      <c r="B215">
+        <v>0.81273261920031281</v>
+      </c>
+      <c r="C215">
+        <v>0.92372758131463639</v>
+      </c>
+      <c r="D215">
+        <v>0.99397236614853191</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>1.888340493726132E-2</v>
+      </c>
+      <c r="B216">
+        <v>0.83596417843064785</v>
+      </c>
+      <c r="C216">
+        <v>0.86645106034402708</v>
+      </c>
+      <c r="D216">
+        <v>0.99055829753136937</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>5.8880383944541351E-4</v>
+      </c>
+      <c r="B217">
+        <v>0.86359871019846557</v>
+      </c>
+      <c r="C217">
+        <v>0.99509928598753217</v>
+      </c>
+      <c r="D217">
+        <v>0.99970559808027737</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>4.7626906844599531E-3</v>
+      </c>
+      <c r="B218">
+        <v>0.84004658941415211</v>
+      </c>
+      <c r="C218">
+        <v>0.96548451801503365</v>
+      </c>
+      <c r="D218">
+        <v>0.99761865465777011</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>6.958727546962841E-3</v>
+      </c>
+      <c r="B219">
+        <v>0.77630137701635593</v>
+      </c>
+      <c r="C219">
+        <v>0.96198961791032866</v>
+      </c>
+      <c r="D219">
+        <v>0.99652063622651854</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>5.986098326606717E-3</v>
+      </c>
+      <c r="B220">
+        <v>0.75301619127983943</v>
+      </c>
+      <c r="C220">
+        <v>0.96981334533340824</v>
+      </c>
+      <c r="D220">
+        <v>0.99700695083669666</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>6.9269428600904934E-4</v>
+      </c>
+      <c r="B221">
+        <v>0.77071631418922404</v>
+      </c>
+      <c r="C221">
+        <v>0.99629102751393595</v>
+      </c>
+      <c r="D221">
+        <v>0.99965365285699548</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>9.4413847364280094E-3</v>
+      </c>
+      <c r="B222">
+        <v>0.87193328764727707</v>
+      </c>
+      <c r="C222">
+        <v>0.91692537934983376</v>
+      </c>
+      <c r="D222">
+        <v>0.99527930763178607</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>3.6520088579563431E-2</v>
+      </c>
+      <c r="B223">
+        <v>0.9105204722260124</v>
+      </c>
+      <c r="C223">
+        <v>0.55667464203885886</v>
+      </c>
+      <c r="D223">
+        <v>0.98173995571021822</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>1.3268257411424438E-2</v>
+      </c>
+      <c r="B224">
+        <v>0.82293092840887982</v>
+      </c>
+      <c r="C224">
+        <v>0.91197531643691576</v>
+      </c>
+      <c r="D224">
+        <v>0.99336587129428777</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>2.0552076084435168E-3</v>
+      </c>
+      <c r="B225">
+        <v>0.72432515613772042</v>
+      </c>
+      <c r="C225">
+        <v>0.99049383273496538</v>
+      </c>
+      <c r="D225">
+        <v>0.99897239619577816</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>2.4625703677087076E-2</v>
+      </c>
+      <c r="B226">
+        <v>0.83627830337434694</v>
+      </c>
+      <c r="C226">
+        <v>0.82569007538554784</v>
+      </c>
+      <c r="D226">
+        <v>0.98768714816145631</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>2.2764715291106845E-2</v>
+      </c>
+      <c r="B227">
+        <v>0.85813710679442778</v>
+      </c>
+      <c r="C227">
+        <v>0.81728464041218907</v>
+      </c>
+      <c r="D227">
+        <v>0.9886176423544466</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>4.3572855181710501E-2</v>
+      </c>
+      <c r="B228">
+        <v>0.90991625868963699</v>
+      </c>
+      <c r="C228">
+        <v>0.47463309548842114</v>
+      </c>
+      <c r="D228">
+        <v>0.97821357240914475</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>1.4803314892965692E-2</v>
+      </c>
+      <c r="B229">
+        <v>0.8495568738610918</v>
+      </c>
+      <c r="C229">
+        <v>0.88701778180181667</v>
+      </c>
+      <c r="D229">
+        <v>0.9925983425535172</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>3.1990361345672473E-3</v>
+      </c>
+      <c r="B230">
+        <v>0.75356561607248462</v>
+      </c>
+      <c r="C230">
+        <v>0.98383036929662993</v>
+      </c>
+      <c r="D230">
+        <v>0.99840048193271635</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>7.2002571520411447E-4</v>
+      </c>
+      <c r="B231">
+        <v>0.7291081064464453</v>
+      </c>
+      <c r="C231">
+        <v>0.99662251094998822</v>
+      </c>
+      <c r="D231">
+        <v>0.99963998714239788</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>3.2291696834544875E-3</v>
+      </c>
+      <c r="B232">
+        <v>0.79042631248905504</v>
+      </c>
+      <c r="C232">
+        <v>0.98137381049997285</v>
+      </c>
+      <c r="D232">
+        <v>0.99838541515827273</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>1.6689238177316316E-3</v>
+      </c>
+      <c r="B233">
+        <v>0.63930680900636661</v>
+      </c>
+      <c r="C233">
+        <v>0.99370719569996346</v>
+      </c>
+      <c r="D233">
+        <v>0.99916553809113406</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>5.0132562063147749E-3</v>
+      </c>
+      <c r="B234">
+        <v>0.73876237969033354</v>
+      </c>
+      <c r="C234">
+        <v>0.9758214697272326</v>
+      </c>
+      <c r="D234">
+        <v>0.99749337189684251</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>3.1552309564994553E-3</v>
+      </c>
+      <c r="B235">
+        <v>0.63111274617354707</v>
+      </c>
+      <c r="C235">
+        <v>0.98830149076163354</v>
+      </c>
+      <c r="D235">
+        <v>0.99842238452175025</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>1.5280430630317762E-3</v>
+      </c>
+      <c r="B236">
+        <v>0.66422823905783535</v>
+      </c>
+      <c r="C236">
+        <v>0.99392371668981805</v>
+      </c>
+      <c r="D236">
+        <v>0.99923597846848411</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>5.2222048148728396E-4</v>
+      </c>
+      <c r="B237">
+        <v>0.81862762402716904</v>
+      </c>
+      <c r="C237">
+        <v>0.99659955052167626</v>
+      </c>
+      <c r="D237">
+        <v>0.9997388897592564</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>3.8558340883922278E-3</v>
+      </c>
+      <c r="B238">
+        <v>0.71160673047292156</v>
+      </c>
+      <c r="C238">
+        <v>0.98278944088992337</v>
+      </c>
+      <c r="D238">
+        <v>0.99807208295580385</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>2.0579600207903128E-3</v>
+      </c>
+      <c r="B239">
+        <v>0.67592514774795065</v>
+      </c>
+      <c r="C239">
+        <v>0.9915960219424812</v>
+      </c>
+      <c r="D239">
+        <v>0.9989710199896048</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>3.0170894996476389E-3</v>
+      </c>
+      <c r="B240">
+        <v>0.83586665551464456</v>
+      </c>
+      <c r="C240">
+        <v>0.97861013972154387</v>
+      </c>
+      <c r="D240">
+        <v>0.99849145525017624</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>4.3740375955141055E-2</v>
+      </c>
+      <c r="B241">
+        <v>0.86237058016058799</v>
+      </c>
+      <c r="C241">
+        <v>0.64036022520603986</v>
+      </c>
+      <c r="D241">
+        <v>0.97812981202242943</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>5.1748425588332786E-2</v>
+      </c>
+      <c r="B242">
+        <v>0.85870934091279605</v>
+      </c>
+      <c r="C242">
+        <v>0.58467441368274153</v>
+      </c>
+      <c r="D242">
+        <v>0.97412578720583354</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>2.7661192214111924E-2</v>
+      </c>
+      <c r="B243">
+        <v>0.84501581560191741</v>
+      </c>
+      <c r="C243">
+        <v>0.79462643733979199</v>
+      </c>
+      <c r="D243">
+        <v>0.98616940389294405</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>3.0023385354921481E-2</v>
+      </c>
+      <c r="B244">
+        <v>0.86853052000018971</v>
+      </c>
+      <c r="C244">
+        <v>0.74251041104574222</v>
+      </c>
+      <c r="D244">
+        <v>0.98498830732253928</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>5.0661099512874043E-2</v>
+      </c>
+      <c r="B245">
+        <v>0.8654130615145913</v>
+      </c>
+      <c r="C245">
+        <v>0.57548639899678888</v>
+      </c>
+      <c r="D245">
+        <v>0.974669450243563</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>5.2951818987132707E-2</v>
+      </c>
+      <c r="B246">
+        <v>0.85640077260720082</v>
+      </c>
+      <c r="C246">
+        <v>0.58110490234064716</v>
+      </c>
+      <c r="D246">
+        <v>0.97352409050643374</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>4.8994919372652976E-2</v>
+      </c>
+      <c r="B247">
+        <v>0.86605055122189556</v>
+      </c>
+      <c r="C247">
+        <v>0.58763404229112659</v>
+      </c>
+      <c r="D247">
+        <v>0.97550254031367345</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>4.3334806769386211E-2</v>
+      </c>
+      <c r="B248">
+        <v>0.86136089473195132</v>
+      </c>
+      <c r="C248">
+        <v>0.64597041413325318</v>
+      </c>
+      <c r="D248">
+        <v>0.97833259661530692</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>4.0017528366516807E-2</v>
+      </c>
+      <c r="B249">
+        <v>0.86458771024574899</v>
+      </c>
+      <c r="C249">
+        <v>0.6660603936387377</v>
+      </c>
+      <c r="D249">
+        <v>0.97999123581674163</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>4.4080497936117298E-2</v>
+      </c>
+      <c r="B250">
+        <v>0.88242495933987519</v>
+      </c>
+      <c r="C250">
+        <v>0.58294887453203748</v>
+      </c>
+      <c r="D250">
+        <v>0.97795975103194133</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>6.1485346826902806E-2</v>
+      </c>
+      <c r="B251">
+        <v>0.85758583914990705</v>
+      </c>
+      <c r="C251">
+        <v>0.51055971125144162</v>
+      </c>
+      <c r="D251">
+        <v>0.96925732658654862</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>6.1503993765828949E-2</v>
+      </c>
+      <c r="B252">
+        <v>0.85710840210286254</v>
+      </c>
+      <c r="C252">
+        <v>0.51185471195932541</v>
+      </c>
+      <c r="D252">
+        <v>0.96924800311708548</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>4.1703686384537447E-2</v>
+      </c>
+      <c r="B253">
+        <v>0.86147501352383027</v>
+      </c>
+      <c r="C253">
+        <v>0.65898025806987159</v>
+      </c>
+      <c r="D253">
+        <v>0.97914815680773126</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>4.511494252873563E-2</v>
+      </c>
+      <c r="B254">
+        <v>0.85124885581982124</v>
+      </c>
+      <c r="C254">
+        <v>0.65362930906455885</v>
+      </c>
+      <c r="D254">
+        <v>0.97744252873563209</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>5.3745915484064467E-2</v>
+      </c>
+      <c r="B255">
+        <v>0.85096103617691121</v>
+      </c>
+      <c r="C255">
+        <v>0.58852619124778283</v>
+      </c>
+      <c r="D255">
+        <v>0.97312704225796776</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>5.7221199852778799E-2</v>
+      </c>
+      <c r="B256">
+        <v>0.85597274280543822</v>
+      </c>
+      <c r="C256">
+        <v>0.54875914736330045</v>
+      </c>
+      <c r="D256">
+        <v>0.97138940007361052</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>3.2236427761682833E-2</v>
+      </c>
+      <c r="B257">
+        <v>0.86312051404167189</v>
+      </c>
+      <c r="C257">
+        <v>0.73329369431349101</v>
+      </c>
+      <c r="D257">
+        <v>0.98388178611915855</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>1.3444146292983503E-2</v>
+      </c>
+      <c r="B258">
+        <v>0.88969339426405325</v>
+      </c>
+      <c r="C258">
+        <v>0.86485681086200172</v>
+      </c>
+      <c r="D258">
+        <v>0.99327792685350824</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>4.2091656874265568E-2</v>
+      </c>
+      <c r="B259">
+        <v>0.86612490621672833</v>
+      </c>
+      <c r="C259">
+        <v>0.64527014779598479</v>
+      </c>
+      <c r="D259">
+        <v>0.97895417156286724</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>1.9627295175687232E-2</v>
+      </c>
+      <c r="B260">
+        <v>0.89948058144922893</v>
+      </c>
+      <c r="C260">
+        <v>0.78549920067051593</v>
+      </c>
+      <c r="D260">
+        <v>0.99018635241215636</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>5.4992016530478072E-3</v>
+      </c>
+      <c r="B261">
+        <v>0.80400881644952604</v>
+      </c>
+      <c r="C261">
+        <v>0.96647270623266035</v>
+      </c>
+      <c r="D261">
+        <v>0.99725039917347613</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>1.1744505494505494E-2</v>
+      </c>
+      <c r="B262">
+        <v>0.795572852212452</v>
+      </c>
+      <c r="C262">
+        <v>0.93094264681498262</v>
+      </c>
+      <c r="D262">
+        <v>0.99412774725274722</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>1.3871695914949392E-2</v>
+      </c>
+      <c r="B263">
+        <v>0.77336790054509619</v>
+      </c>
+      <c r="C263">
+        <v>0.9251127734956307</v>
+      </c>
+      <c r="D263">
+        <v>0.99306415204252529</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>8.895435589394346E-3</v>
+      </c>
+      <c r="B264">
+        <v>0.79791494103540006</v>
+      </c>
+      <c r="C264">
+        <v>0.94716568719180871</v>
+      </c>
+      <c r="D264">
+        <v>0.9955522822053029</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>8.5811058540077173E-3</v>
+      </c>
+      <c r="B265">
+        <v>0.76964958788057591</v>
+      </c>
+      <c r="C265">
+        <v>0.9542401602649726</v>
+      </c>
+      <c r="D265">
+        <v>0.99570944707299613</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>9.0594630209191239E-4</v>
+      </c>
+      <c r="B266">
+        <v>0.68345442276469925</v>
+      </c>
+      <c r="C266">
+        <v>0.99623289699246331</v>
+      </c>
+      <c r="D266">
+        <v>0.99954702684895402</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>1.0511673263351114E-2</v>
+      </c>
+      <c r="B267">
+        <v>0.78635081628050163</v>
+      </c>
+      <c r="C267">
+        <v>0.94039845111947495</v>
+      </c>
+      <c r="D267">
+        <v>0.99474416336832439</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>0</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>0</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>0</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>0</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+      <c r="D271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>9.662769349695623E-6</v>
+      </c>
+      <c r="B272">
+        <v>0.33332850191364471</v>
+      </c>
+      <c r="C272">
+        <v>0.99997584327503497</v>
+      </c>
+      <c r="D272">
+        <v>0.99999516861532511</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>4.658385093167702E-3</v>
+      </c>
+      <c r="B273">
+        <v>0.81691044467963014</v>
+      </c>
+      <c r="C273">
+        <v>0.96992013963930657</v>
+      </c>
+      <c r="D273">
+        <v>0.99767080745341608</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>3.5150919709622838E-3</v>
+      </c>
+      <c r="B274">
+        <v>0.8073548959310054</v>
+      </c>
+      <c r="C274">
+        <v>0.978250813628464</v>
+      </c>
+      <c r="D274">
+        <v>0.99824245401451883</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>0</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>0</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>3.0987202925045702E-3</v>
+      </c>
+      <c r="B277">
+        <v>0.80283477144080462</v>
+      </c>
+      <c r="C277">
+        <v>0.98119540237760217</v>
+      </c>
+      <c r="D277">
+        <v>0.99845063985374771</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>0</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>0</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>3.4857780256553265E-5</v>
+      </c>
+      <c r="B280">
+        <v>0.49998257050231804</v>
+      </c>
+      <c r="C280">
+        <v>0.99989543030442485</v>
+      </c>
+      <c r="D280">
+        <v>0.99998257110987177</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>5.4992016530478072E-3</v>
+      </c>
+      <c r="B281">
+        <v>0.80400881644952604</v>
+      </c>
+      <c r="C281">
+        <v>0.96647270623266035</v>
+      </c>
+      <c r="D281">
+        <v>0.99725039917347613</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>1.1744505494505494E-2</v>
+      </c>
+      <c r="B282">
+        <v>0.795572852212452</v>
+      </c>
+      <c r="C282">
+        <v>0.93094264681498262</v>
+      </c>
+      <c r="D282">
+        <v>0.99412774725274722</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>1.3871695914949392E-2</v>
+      </c>
+      <c r="B283">
+        <v>0.77336790054509619</v>
+      </c>
+      <c r="C283">
+        <v>0.9251127734956307</v>
+      </c>
+      <c r="D283">
+        <v>0.99306415204252529</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>8.895435589394346E-3</v>
+      </c>
+      <c r="B284">
+        <v>0.79791494103540006</v>
+      </c>
+      <c r="C284">
+        <v>0.94716568719180871</v>
+      </c>
+      <c r="D284">
+        <v>0.9955522822053029</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>8.5811058540077173E-3</v>
+      </c>
+      <c r="B285">
+        <v>0.76964958788057591</v>
+      </c>
+      <c r="C285">
+        <v>0.9542401602649726</v>
+      </c>
+      <c r="D285">
+        <v>0.99570944707299613</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>9.0594630209191239E-4</v>
+      </c>
+      <c r="B286">
+        <v>0.68345442276469925</v>
+      </c>
+      <c r="C286">
+        <v>0.99623289699246331</v>
+      </c>
+      <c r="D286">
+        <v>0.99954702684895402</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>1.0511673263351114E-2</v>
+      </c>
+      <c r="B287">
+        <v>0.78635081628050163</v>
+      </c>
+      <c r="C287">
+        <v>0.94039845111947495</v>
+      </c>
+      <c r="D287">
+        <v>0.99474416336832439</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>0</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>0</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>0</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>0</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>9.662769349695623E-6</v>
+      </c>
+      <c r="B292">
+        <v>0.33332850191364471</v>
+      </c>
+      <c r="C292">
+        <v>0.99997584327503497</v>
+      </c>
+      <c r="D292">
+        <v>0.99999516861532511</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>4.658385093167702E-3</v>
+      </c>
+      <c r="B293">
+        <v>0.81691044467963014</v>
+      </c>
+      <c r="C293">
+        <v>0.96992013963930657</v>
+      </c>
+      <c r="D293">
+        <v>0.99767080745341608</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>3.5150919709622838E-3</v>
+      </c>
+      <c r="B294">
+        <v>0.8073548959310054</v>
+      </c>
+      <c r="C294">
+        <v>0.978250813628464</v>
+      </c>
+      <c r="D294">
+        <v>0.99824245401451883</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>0</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>0</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>3.0987202925045702E-3</v>
+      </c>
+      <c r="B297">
+        <v>0.80283477144080462</v>
+      </c>
+      <c r="C297">
+        <v>0.98119540237760217</v>
+      </c>
+      <c r="D297">
+        <v>0.99845063985374771</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>0</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>0</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+      <c r="D299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>3.4857780256553265E-5</v>
+      </c>
+      <c r="B300">
+        <v>0.49998257050231804</v>
+      </c>
+      <c r="C300">
+        <v>0.99989543030442485</v>
+      </c>
+      <c r="D300">
+        <v>0.99998257110987177</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>4.3236031673481489E-5</v>
+      </c>
+      <c r="B301">
+        <v>0.75859906970304514</v>
+      </c>
+      <c r="C301">
+        <v>0.99977766117714673</v>
+      </c>
+      <c r="D301">
+        <v>0.99997838198416333</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>4.67753101203061E-6</v>
+      </c>
+      <c r="B302">
+        <v>0.74999766121261446</v>
+      </c>
+      <c r="C302">
+        <v>0.99997661254185355</v>
+      </c>
+      <c r="D302">
+        <v>0.99999766123449396</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>0</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+      <c r="D303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>4.1194514158237638E-5</v>
+      </c>
+      <c r="B304">
+        <v>0.89773990778105039</v>
+      </c>
+      <c r="C304">
+        <v>0.9995754556764701</v>
+      </c>
+      <c r="D304">
+        <v>0.99997940274292085</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>1.6870234158850126E-5</v>
+      </c>
+      <c r="B305">
+        <v>0.62499156469317962</v>
+      </c>
+      <c r="C305">
+        <v>0.99993814377128387</v>
+      </c>
+      <c r="D305">
+        <v>0.99999156488292062</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>2.2615991767778995E-5</v>
+      </c>
+      <c r="B306">
+        <v>-1.1308123756106384E-5</v>
+      </c>
+      <c r="C306">
+        <v>0.99995476878368905</v>
+      </c>
+      <c r="D306">
+        <v>0.99998869200411611</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>3.7859530325483788E-5</v>
+      </c>
+      <c r="B307">
+        <v>0.77417461703488444</v>
+      </c>
+      <c r="C307">
+        <v>0.99979449232426709</v>
+      </c>
+      <c r="D307">
+        <v>0.99998107023483729</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>0</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+      <c r="D308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>0</v>
+      </c>
+      <c r="B309">
+        <v>0</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+      <c r="D309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>0</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>0</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+      <c r="D311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>0</v>
+      </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+      <c r="D312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>2.2504529036468591E-5</v>
+      </c>
+      <c r="B313">
+        <v>0.78678693886147744</v>
+      </c>
+      <c r="C313">
+        <v>0.99988185655615025</v>
+      </c>
+      <c r="D313">
+        <v>0.99998874773548174</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>0</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+      <c r="D314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>5.9808612440191389E-5</v>
+      </c>
+      <c r="B315">
+        <v>0.79997009122177354</v>
+      </c>
+      <c r="C315">
+        <v>0.99964119661580553</v>
+      </c>
+      <c r="D315">
+        <v>0.99997009569377993</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>0</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+      <c r="D316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>0</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="D317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>5.6730507397658165E-5</v>
+      </c>
+      <c r="B318">
+        <v>0.81815344850219707</v>
+      </c>
+      <c r="C318">
+        <v>0.9996313035978166</v>
+      </c>
+      <c r="D318">
+        <v>0.99997163474630113</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>0</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+      <c r="D319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>2.710561332610517E-5</v>
+      </c>
+      <c r="B320">
+        <v>0.86265049313247166</v>
+      </c>
+      <c r="C320">
+        <v>0.99978810156634745</v>
+      </c>
+      <c r="D320">
+        <v>0.99998644719333696</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>0</v>
+      </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+      <c r="D321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>3.4463744141163496E-5</v>
+      </c>
+      <c r="B322">
+        <v>0.74998276694009802</v>
+      </c>
+      <c r="C322">
+        <v>0.99982769196904109</v>
+      </c>
+      <c r="D322">
+        <v>0.99998276812792941</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>2.8693745911141208E-5</v>
+      </c>
+      <c r="B323">
+        <v>0.79998565209780659</v>
+      </c>
+      <c r="C323">
+        <v>0.99982784863950236</v>
+      </c>
+      <c r="D323">
+        <v>0.99998565312704435</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>0</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>0</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>0</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>0</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>0</v>
+      </c>
+      <c r="B328">
+        <v>0</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+      <c r="D328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>0</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="D329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>0</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>0</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+      <c r="D331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>0</v>
+      </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
+      <c r="C332">
+        <v>1</v>
+      </c>
+      <c r="D332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>1.5204038192543939E-5</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+      <c r="C333">
+        <v>0.99996959238594041</v>
+      </c>
+      <c r="D333">
+        <v>0.99999239798090367</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>0</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
+      <c r="C334">
+        <v>1</v>
+      </c>
+      <c r="D334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>0</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+      <c r="D335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>0</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>0</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+      <c r="D337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>4.3166709833376498E-5</v>
+      </c>
+      <c r="B338">
+        <v>0.89971598776079431</v>
+      </c>
+      <c r="C338">
+        <v>0.99954683642613518</v>
+      </c>
+      <c r="D338">
+        <v>0.99997841664508325</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>0</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+      <c r="D339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>0</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>0</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+      <c r="D341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>0</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+      <c r="D342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>0</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+      <c r="D343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>0</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>0</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+      <c r="D345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>0</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+      <c r="D346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>3.5830735605001968E-5</v>
+      </c>
+      <c r="B347">
+        <v>0.42855351264192776</v>
+      </c>
+      <c r="C347">
+        <v>0.99990146872681018</v>
+      </c>
+      <c r="D347">
+        <v>0.9999820846321974</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>0</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+      <c r="D348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>0</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+      <c r="D349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>6.6427527567423944E-5</v>
+      </c>
+      <c r="B350">
+        <v>0.77918756045960447</v>
+      </c>
+      <c r="C350">
+        <v>0.99963274452385742</v>
+      </c>
+      <c r="D350">
+        <v>0.99996678623621638</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>2.8360748723766308E-5</v>
+      </c>
+      <c r="B351">
+        <v>0.72725854616102259</v>
+      </c>
+      <c r="C351">
+        <v>0.99986765605052008</v>
+      </c>
+      <c r="D351">
+        <v>0.99998581962563815</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>2.0902791567813881E-5</v>
+      </c>
+      <c r="B352">
+        <v>0.73332288152791469</v>
+      </c>
+      <c r="C352">
+        <v>0.9999007152491205</v>
+      </c>
+      <c r="D352">
+        <v>0.99998954860421607</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>5.2238168054935558E-5</v>
+      </c>
+      <c r="B353">
+        <v>0.79627017386282561</v>
+      </c>
+      <c r="C353">
+        <v>0.99969135552609334</v>
+      </c>
+      <c r="D353">
+        <v>0.99997388091597261</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>3.1743680362301204E-5</v>
+      </c>
+      <c r="B354">
+        <v>0.76921489629887985</v>
+      </c>
+      <c r="C354">
+        <v>0.99983071083988173</v>
+      </c>
+      <c r="D354">
+        <v>0.99998412815981885</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>0</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+      <c r="D355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>3.274522902013177E-5</v>
+      </c>
+      <c r="B356">
+        <v>0.76188838816431181</v>
+      </c>
+      <c r="C356">
+        <v>0.99982973533859054</v>
+      </c>
+      <c r="D356">
+        <v>0.99998362738548996</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>3.328141432698324E-5</v>
+      </c>
+      <c r="B357">
+        <v>0.77271063080160218</v>
+      </c>
+      <c r="C357">
+        <v>0.99982029219236357</v>
+      </c>
+      <c r="D357">
+        <v>0.99998335929283655</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>4.3565391652870956E-5</v>
+      </c>
+      <c r="B358">
+        <v>0.69563038965808055</v>
+      </c>
+      <c r="C358">
+        <v>0.99981330332159468</v>
+      </c>
+      <c r="D358">
+        <v>0.99997821730417358</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>3.8990408359543552E-5</v>
+      </c>
+      <c r="B359">
+        <v>0.73911093812141215</v>
+      </c>
+      <c r="C359">
+        <v>0.99981155904947638</v>
+      </c>
+      <c r="D359">
+        <v>0.99998050479582024</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>3.7103456805392368E-5</v>
+      </c>
+      <c r="B360">
+        <v>0.77775922450049595</v>
+      </c>
+      <c r="C360">
+        <v>0.99979594630298529</v>
+      </c>
+      <c r="D360">
+        <v>0.9999814482715973</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>1.6293279022403257E-5</v>
+      </c>
+      <c r="B361">
+        <v>0.33332518659426924</v>
+      </c>
+      <c r="C361">
+        <v>0.9999592673665697</v>
+      </c>
+      <c r="D361">
+        <v>0.99999185336048879</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>0</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>0</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+      <c r="D363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>0</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+      <c r="D364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>0</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+      <c r="D365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>0</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+      <c r="D366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>0</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+      <c r="D367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>0</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+      <c r="D368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>0</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+      <c r="D369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>0</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+      <c r="D370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>0</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+      <c r="D371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>0</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+      <c r="D372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>0</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+      <c r="D373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>0</v>
+      </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+      <c r="D374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>0</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+      <c r="D375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>0</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>0</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+      <c r="D377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>0</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+      <c r="C378">
+        <v>1</v>
+      </c>
+      <c r="D378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>0</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+      <c r="D379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>0</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+      <c r="D380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>1.6293279022403257E-5</v>
+      </c>
+      <c r="B381">
+        <v>0.33332518659426924</v>
+      </c>
+      <c r="C381">
+        <v>0.9999592673665697</v>
+      </c>
+      <c r="D381">
+        <v>0.99999185336048879</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>0</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+      <c r="D382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>0</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+      <c r="C383">
+        <v>1</v>
+      </c>
+      <c r="D383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>0</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+      <c r="D384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>0</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+      <c r="D385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>0</v>
+      </c>
+      <c r="B386">
+        <v>0</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+      <c r="D386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>0</v>
+      </c>
+      <c r="B387">
+        <v>0</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+      <c r="D387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>0</v>
+      </c>
+      <c r="B388">
+        <v>0</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+      <c r="D388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>0</v>
+      </c>
+      <c r="B389">
+        <v>0</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+      <c r="D389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>0</v>
+      </c>
+      <c r="B390">
+        <v>0</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+      <c r="D390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>0</v>
+      </c>
+      <c r="B391">
+        <v>0</v>
+      </c>
+      <c r="C391">
+        <v>1</v>
+      </c>
+      <c r="D391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>0</v>
+      </c>
+      <c r="B392">
+        <v>0</v>
+      </c>
+      <c r="C392">
+        <v>1</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>0</v>
+      </c>
+      <c r="B393">
+        <v>0</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+      <c r="D393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>0</v>
+      </c>
+      <c r="B394">
+        <v>0</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+      <c r="D394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>0</v>
+      </c>
+      <c r="B395">
+        <v>0</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+      <c r="D395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>0</v>
+      </c>
+      <c r="B396">
+        <v>0</v>
+      </c>
+      <c r="C396">
+        <v>1</v>
+      </c>
+      <c r="D396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>0</v>
+      </c>
+      <c r="B397">
+        <v>0</v>
+      </c>
+      <c r="C397">
+        <v>1</v>
+      </c>
+      <c r="D397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>0</v>
+      </c>
+      <c r="B398">
+        <v>0</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+      <c r="D398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>0</v>
+      </c>
+      <c r="B399">
+        <v>0</v>
+      </c>
+      <c r="C399">
+        <v>1</v>
+      </c>
+      <c r="D399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>0</v>
+      </c>
+      <c r="B400">
+        <v>0</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+      <c r="D400">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>